--- a/sht1.xlsx
+++ b/sht1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmahe\Documents\UiPath\PoolCleansingPOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0106085B-DF69-4913-A906-A18C7C020748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99977A99-7FA3-47A7-B9F1-EAE99BB96318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,7 +712,7 @@
   <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K2:K3"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
